--- a/Ozone.bg Test Cases v1.0.xlsx
+++ b/Ozone.bg Test Cases v1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpak\Desktop\Github\Manual-test\E-comerse\Ozone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpak\Desktop\Github\Software-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="196">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -307,12 +307,6 @@
     <t>Required</t>
   </si>
   <si>
-    <t>An error message appear</t>
-  </si>
-  <si>
-    <t>Validate field OK</t>
-  </si>
-  <si>
     <t>Where you can find this feature:</t>
   </si>
   <si>
@@ -609,99 +603,6 @@
   </si>
   <si>
     <t>LP15</t>
-  </si>
-  <si>
-    <t>LP16</t>
-  </si>
-  <si>
-    <t>LP17</t>
-  </si>
-  <si>
-    <t>LP18</t>
-  </si>
-  <si>
-    <t>LP19</t>
-  </si>
-  <si>
-    <t>LP20</t>
-  </si>
-  <si>
-    <t>LP21</t>
-  </si>
-  <si>
-    <t>LP22</t>
-  </si>
-  <si>
-    <t>LP23</t>
-  </si>
-  <si>
-    <t>LP24</t>
-  </si>
-  <si>
-    <t>LP25</t>
-  </si>
-  <si>
-    <t>LP26</t>
-  </si>
-  <si>
-    <t>LP27</t>
-  </si>
-  <si>
-    <t>LP28</t>
-  </si>
-  <si>
-    <t>LP29</t>
-  </si>
-  <si>
-    <t>LP30</t>
-  </si>
-  <si>
-    <t>LP31</t>
-  </si>
-  <si>
-    <t>LP32</t>
-  </si>
-  <si>
-    <t>LP33</t>
-  </si>
-  <si>
-    <t>LP34</t>
-  </si>
-  <si>
-    <t>LP35</t>
-  </si>
-  <si>
-    <t>LP36</t>
-  </si>
-  <si>
-    <t>LP37</t>
-  </si>
-  <si>
-    <t>LP38</t>
-  </si>
-  <si>
-    <t>LP39</t>
-  </si>
-  <si>
-    <t>LP40</t>
-  </si>
-  <si>
-    <t>LP41</t>
-  </si>
-  <si>
-    <t>LP42</t>
-  </si>
-  <si>
-    <t>LP43</t>
-  </si>
-  <si>
-    <t>LP44</t>
-  </si>
-  <si>
-    <t>LP45</t>
-  </si>
-  <si>
-    <t>LP46</t>
   </si>
   <si>
     <t>Header links with different browsers</t>
@@ -1330,17 +1231,17 @@
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1353,10 +1254,10 @@
     </row>
     <row r="3" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1367,38 +1268,38 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G9" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G10" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1406,33 +1307,33 @@
     </row>
     <row r="12" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G15" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1440,28 +1341,28 @@
     </row>
     <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G21" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1469,33 +1370,33 @@
     </row>
     <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G26" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G27" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1503,38 +1404,38 @@
     </row>
     <row r="29" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G32" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G33" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G34" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1542,122 +1443,122 @@
     </row>
     <row r="36" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G39" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G44" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G45" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G46" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G47" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G48" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G53" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1676,9 +1577,9 @@
   </sheetPr>
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="A2:F4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1697,7 +1598,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -1721,30 +1622,30 @@
         <v>6</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>158</v>
-      </c>
       <c r="G2" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>7</v>
@@ -1752,23 +1653,23 @@
     </row>
     <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E3" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>158</v>
-      </c>
       <c r="G3" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>7</v>
@@ -1776,23 +1677,23 @@
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>155</v>
-      </c>
       <c r="E4" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>158</v>
-      </c>
       <c r="G4" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>7</v>
@@ -1800,23 +1701,23 @@
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>158</v>
-      </c>
       <c r="G5" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>7</v>
@@ -1824,25 +1725,25 @@
     </row>
     <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>7</v>
@@ -1850,23 +1751,23 @@
     </row>
     <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>7</v>
@@ -1874,23 +1775,23 @@
     </row>
     <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>164</v>
-      </c>
       <c r="F8" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>7</v>
@@ -1898,52 +1799,52 @@
     </row>
     <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="G9" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="H9" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="H9" s="18" t="s">
+      <c r="I9" s="25" t="s">
         <v>167</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>7</v>
@@ -1952,23 +1853,23 @@
     </row>
     <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>7</v>
@@ -1977,23 +1878,23 @@
     </row>
     <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>7</v>
@@ -2002,25 +1903,25 @@
     </row>
     <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>7</v>
@@ -2029,23 +1930,23 @@
     </row>
     <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>7</v>
@@ -2054,62 +1955,60 @@
     </row>
     <row r="15" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="18" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="18" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>186</v>
-      </c>
+      <c r="A17" s="15"/>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="17"/>
@@ -2120,9 +2019,7 @@
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>187</v>
-      </c>
+      <c r="A18" s="15"/>
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="17"/>
@@ -2133,9 +2030,7 @@
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>188</v>
-      </c>
+      <c r="A19" s="15"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="17"/>
@@ -2146,9 +2041,7 @@
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>189</v>
-      </c>
+      <c r="A20" s="15"/>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="17"/>
@@ -2159,9 +2052,7 @@
       <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>190</v>
-      </c>
+      <c r="A21" s="15"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="17"/>
@@ -2172,9 +2063,7 @@
       <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>191</v>
-      </c>
+      <c r="A22" s="15"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="17"/>
@@ -2185,9 +2074,7 @@
       <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>192</v>
-      </c>
+      <c r="A23" s="15"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
       <c r="D23" s="17"/>
@@ -2198,9 +2085,7 @@
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>193</v>
-      </c>
+      <c r="A24" s="15"/>
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
       <c r="D24" s="17"/>
@@ -2211,9 +2096,7 @@
       <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>194</v>
-      </c>
+      <c r="A25" s="15"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -2223,297 +2106,187 @@
       <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>195</v>
-      </c>
+      <c r="A26" s="15"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>196</v>
-      </c>
+      <c r="A27" s="15"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>197</v>
-      </c>
+      <c r="A28" s="15"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>198</v>
-      </c>
+      <c r="A29" s="15"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>199</v>
-      </c>
+      <c r="A30" s="15"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="A31" s="15"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>201</v>
-      </c>
+      <c r="A32" s="15"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
-        <v>202</v>
-      </c>
+      <c r="A33" s="15"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
-        <v>203</v>
-      </c>
+      <c r="A34" s="15"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
-        <v>204</v>
-      </c>
+      <c r="A35" s="15"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
-      <c r="G35" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
-        <v>205</v>
-      </c>
+      <c r="A36" s="15"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
-        <v>206</v>
-      </c>
+      <c r="A37" s="15"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="18"/>
-      <c r="G37" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
-        <v>207</v>
-      </c>
+      <c r="A38" s="15"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
-        <v>208</v>
-      </c>
+      <c r="A39" s="15"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
       <c r="F39" s="18"/>
-      <c r="G39" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
-        <v>209</v>
-      </c>
+      <c r="A40" s="15"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="18"/>
-      <c r="G40" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
-        <v>210</v>
-      </c>
+      <c r="A41" s="15"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="18"/>
-      <c r="G41" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
-        <v>211</v>
-      </c>
+      <c r="A42" s="15"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="18"/>
-      <c r="G42" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>212</v>
-      </c>
+      <c r="A43" s="15"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
       <c r="E43" s="21"/>
       <c r="F43" s="18"/>
-      <c r="G43" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
     </row>
     <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
-        <v>213</v>
-      </c>
+      <c r="A44" s="15"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -2523,9 +2296,7 @@
       <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
-        <v>214</v>
-      </c>
+      <c r="A45" s="15"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -2535,9 +2306,7 @@
       <c r="H45" s="17"/>
     </row>
     <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
-        <v>215</v>
-      </c>
+      <c r="A46" s="15"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -2547,9 +2316,7 @@
       <c r="H46" s="22"/>
     </row>
     <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
-        <v>216</v>
-      </c>
+      <c r="A47" s="15"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
